--- a/users_data.xlsx
+++ b/users_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЗЕРОКОД\GitRepositories\OOP2-userbase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32339C17-5DD5-4A53-9D8A-E3B021DB4976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848E9EDA-67B0-4335-A464-32BD3E1CAAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,9 +380,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -400,10 +401,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -411,10 +412,10 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -422,10 +423,10 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -433,10 +434,10 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
